--- a/Team-Data/2007-08/4-15-2007-08.xlsx
+++ b/Team-Data/2007-08/4-15-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,25 +733,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
         <v>37</v>
       </c>
       <c r="F2" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" t="n">
-        <v>0.457</v>
+        <v>0.463</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J2" t="n">
-        <v>79.90000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="K2" t="n">
         <v>0.454</v>
@@ -693,7 +760,7 @@
         <v>4.7</v>
       </c>
       <c r="M2" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="N2" t="n">
         <v>0.357</v>
@@ -702,7 +769,7 @@
         <v>21</v>
       </c>
       <c r="P2" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="Q2" t="n">
         <v>0.773</v>
@@ -729,22 +796,22 @@
         <v>5.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z2" t="n">
         <v>20.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.7</v>
+        <v>-1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -756,7 +823,7 @@
         <v>19</v>
       </c>
       <c r="AH2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI2" t="n">
         <v>22</v>
@@ -774,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO2" t="n">
         <v>5</v>
       </c>
       <c r="AP2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ2" t="n">
         <v>7</v>
@@ -807,7 +874,7 @@
         <v>4</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ2" t="n">
         <v>11</v>
@@ -819,7 +886,7 @@
         <v>15</v>
       </c>
       <c r="BC2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>10.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -989,10 +1056,10 @@
         <v>18</v>
       </c>
       <c r="AY3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA3" t="n">
         <v>8</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" t="n">
         <v>31</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" t="n">
-        <v>0.383</v>
+        <v>0.388</v>
       </c>
       <c r="H4" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I4" t="n">
         <v>36</v>
       </c>
       <c r="J4" t="n">
-        <v>79.90000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L4" t="n">
         <v>6.5</v>
@@ -1063,22 +1130,22 @@
         <v>0.367</v>
       </c>
       <c r="O4" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P4" t="n">
         <v>25.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.713</v>
+        <v>0.711</v>
       </c>
       <c r="R4" t="n">
         <v>10.9</v>
       </c>
       <c r="S4" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T4" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U4" t="n">
         <v>21.2</v>
@@ -1090,7 +1157,7 @@
         <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y4" t="n">
         <v>5.9</v>
@@ -1099,34 +1166,34 @@
         <v>21.7</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="AC4" t="n">
         <v>-4.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG4" t="n">
         <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI4" t="n">
         <v>24</v>
       </c>
       <c r="AJ4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK4" t="n">
         <v>18</v>
@@ -1141,7 +1208,7 @@
         <v>12</v>
       </c>
       <c r="AO4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP4" t="n">
         <v>11</v>
@@ -1159,7 +1226,7 @@
         <v>26</v>
       </c>
       <c r="AU4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV4" t="n">
         <v>21</v>
@@ -1180,7 +1247,7 @@
         <v>17</v>
       </c>
       <c r="BB4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-3.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1302,7 +1369,7 @@
         <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1323,7 +1390,7 @@
         <v>13</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP5" t="n">
         <v>18</v>
@@ -1344,7 +1411,7 @@
         <v>11</v>
       </c>
       <c r="AV5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW5" t="n">
         <v>10</v>
@@ -1353,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
         <v>22</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1484,7 +1551,7 @@
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>4.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
         <v>10</v>
@@ -1666,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1848,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1878,7 +1945,7 @@
         <v>19</v>
       </c>
       <c r="AR8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" t="n">
         <v>23</v>
       </c>
       <c r="G9" t="n">
-        <v>0.716</v>
+        <v>0.713</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1961,40 +2028,40 @@
         <v>79.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M9" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
       <c r="O9" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P9" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="R9" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S9" t="n">
         <v>29.5</v>
       </c>
       <c r="T9" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U9" t="n">
         <v>22.3</v>
       </c>
       <c r="V9" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="W9" t="n">
         <v>7.2</v>
@@ -2012,13 +2079,13 @@
         <v>19.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2033,16 +2100,16 @@
         <v>25</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="n">
         <v>13</v>
       </c>
       <c r="AL9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM9" t="n">
         <v>22</v>
@@ -2051,7 +2118,7 @@
         <v>14</v>
       </c>
       <c r="AO9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP9" t="n">
         <v>22</v>
@@ -2060,7 +2127,7 @@
         <v>14</v>
       </c>
       <c r="AR9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS9" t="n">
         <v>25</v>
@@ -2069,7 +2136,7 @@
         <v>20</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2093,7 +2160,7 @@
         <v>16</v>
       </c>
       <c r="BC9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>2.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>12</v>
@@ -2212,7 +2279,7 @@
         <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
         <v>1</v>
@@ -2230,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO10" t="n">
         <v>13</v>
@@ -2251,7 +2318,7 @@
         <v>6</v>
       </c>
       <c r="AU10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>8</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
@@ -2394,16 +2461,16 @@
         <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
         <v>16</v>
       </c>
       <c r="AK11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
         <v>10</v>
@@ -2454,7 +2521,7 @@
         <v>26</v>
       </c>
       <c r="BB11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2585,7 +2652,7 @@
         <v>4</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL12" t="n">
         <v>3</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
         <v>12</v>
@@ -2639,7 +2706,7 @@
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" t="n">
         <v>23</v>
       </c>
       <c r="F13" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" t="n">
-        <v>0.284</v>
+        <v>0.288</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
@@ -2686,7 +2753,7 @@
         <v>34.5</v>
       </c>
       <c r="J13" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="K13" t="n">
         <v>0.438</v>
@@ -2698,19 +2765,19 @@
         <v>13.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.324</v>
+        <v>0.323</v>
       </c>
       <c r="O13" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="P13" t="n">
         <v>26.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.78</v>
+        <v>0.781</v>
       </c>
       <c r="R13" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S13" t="n">
         <v>30.3</v>
@@ -2734,19 +2801,19 @@
         <v>4.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>94</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>-7.1</v>
+        <v>-7</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,13 +2825,13 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2794,7 +2861,7 @@
         <v>17</v>
       </c>
       <c r="AT13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU13" t="n">
         <v>16</v>
@@ -2812,7 +2879,7 @@
         <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" t="n">
         <v>25</v>
       </c>
       <c r="G14" t="n">
-        <v>0.695</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
@@ -2883,16 +2950,16 @@
         <v>0.378</v>
       </c>
       <c r="O14" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="P14" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R14" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S14" t="n">
         <v>33.2</v>
@@ -2901,13 +2968,13 @@
         <v>44.1</v>
       </c>
       <c r="U14" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="V14" t="n">
         <v>14.1</v>
       </c>
       <c r="W14" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X14" t="n">
         <v>5.3</v>
@@ -2916,16 +2983,16 @@
         <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.6</v>
+        <v>108.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2940,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -2958,7 +3025,7 @@
         <v>6</v>
       </c>
       <c r="AN14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2967,7 +3034,7 @@
         <v>5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR14" t="n">
         <v>19</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -3032,22 +3099,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" t="n">
         <v>22</v>
       </c>
       <c r="F15" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" t="n">
-        <v>0.272</v>
+        <v>0.275</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
         <v>81.90000000000001</v>
@@ -3059,28 +3126,28 @@
         <v>7.5</v>
       </c>
       <c r="M15" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.349</v>
+        <v>0.352</v>
       </c>
       <c r="O15" t="n">
         <v>18.6</v>
       </c>
       <c r="P15" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.723</v>
+        <v>0.725</v>
       </c>
       <c r="R15" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S15" t="n">
         <v>31.2</v>
       </c>
       <c r="T15" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U15" t="n">
         <v>19</v>
@@ -3101,28 +3168,28 @@
         <v>19.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.2</v>
+        <v>-6</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI15" t="n">
         <v>11</v>
@@ -3140,16 +3207,16 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
         <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR15" t="n">
         <v>22</v>
@@ -3158,7 +3225,7 @@
         <v>12</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU15" t="n">
         <v>29</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-8.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-6.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3495,7 +3562,7 @@
         <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="n">
         <v>24</v>
@@ -3522,19 +3589,19 @@
         <v>29</v>
       </c>
       <c r="AT17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU17" t="n">
         <v>14</v>
       </c>
       <c r="AV17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW17" t="n">
         <v>21</v>
       </c>
       <c r="AX17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY17" t="n">
         <v>19</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" t="n">
         <v>21</v>
       </c>
       <c r="F18" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" t="n">
-        <v>0.259</v>
+        <v>0.263</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
       </c>
       <c r="I18" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J18" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L18" t="n">
         <v>5.3</v>
@@ -3608,28 +3675,28 @@
         <v>15.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
       <c r="O18" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="P18" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.736</v>
+        <v>0.738</v>
       </c>
       <c r="R18" t="n">
         <v>11.7</v>
       </c>
       <c r="S18" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T18" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U18" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V18" t="n">
         <v>14.6</v>
@@ -3650,13 +3717,13 @@
         <v>17.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>95.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-7</v>
+        <v>-6.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3686,7 +3753,7 @@
         <v>25</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3704,13 +3771,13 @@
         <v>24</v>
       </c>
       <c r="AT18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU18" t="n">
         <v>26</v>
       </c>
       <c r="AV18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW18" t="n">
         <v>13</v>
@@ -3719,7 +3786,7 @@
         <v>29</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -3760,25 +3827,25 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" t="n">
         <v>47</v>
       </c>
       <c r="G19" t="n">
-        <v>0.42</v>
+        <v>0.413</v>
       </c>
       <c r="H19" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I19" t="n">
         <v>34.9</v>
       </c>
       <c r="J19" t="n">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="K19" t="n">
         <v>0.443</v>
@@ -3787,31 +3854,31 @@
         <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="N19" t="n">
         <v>0.347</v>
       </c>
       <c r="O19" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="P19" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="Q19" t="n">
         <v>0.735</v>
       </c>
       <c r="R19" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S19" t="n">
         <v>30.7</v>
       </c>
       <c r="T19" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U19" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V19" t="n">
         <v>15</v>
@@ -3826,19 +3893,19 @@
         <v>4.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5</v>
+        <v>-5.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
         <v>21</v>
@@ -3850,16 +3917,16 @@
         <v>21</v>
       </c>
       <c r="AH19" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AI19" t="n">
         <v>28</v>
       </c>
       <c r="AJ19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK19" t="n">
         <v>25</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>18</v>
@@ -3874,13 +3941,13 @@
         <v>10</v>
       </c>
       <c r="AP19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ19" t="n">
         <v>21</v>
       </c>
       <c r="AR19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS19" t="n">
         <v>13</v>
@@ -3895,7 +3962,7 @@
         <v>25</v>
       </c>
       <c r="AW19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX19" t="n">
         <v>16</v>
@@ -3904,7 +3971,7 @@
         <v>9</v>
       </c>
       <c r="AZ19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA19" t="n">
         <v>7</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -3942,46 +4009,46 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20" t="n">
         <v>25</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J20" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L20" t="n">
         <v>7.7</v>
       </c>
       <c r="M20" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.389</v>
+        <v>0.39</v>
       </c>
       <c r="O20" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P20" t="n">
         <v>20.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.767</v>
       </c>
       <c r="R20" t="n">
         <v>11.4</v>
@@ -3990,13 +4057,13 @@
         <v>30.4</v>
       </c>
       <c r="T20" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U20" t="n">
         <v>21.8</v>
       </c>
       <c r="V20" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="W20" t="n">
         <v>7.8</v>
@@ -4011,16 +4078,16 @@
         <v>18.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
         <v>4</v>
@@ -4032,7 +4099,7 @@
         <v>4</v>
       </c>
       <c r="AH20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI20" t="n">
         <v>6</v>
@@ -4059,7 +4126,7 @@
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
         <v>14</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -4202,16 +4269,16 @@
         <v>-6.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
       </c>
       <c r="AF21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH21" t="n">
         <v>3</v>
@@ -4226,7 +4293,7 @@
         <v>28</v>
       </c>
       <c r="AL21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM21" t="n">
         <v>15</v>
@@ -4241,13 +4308,13 @@
         <v>13</v>
       </c>
       <c r="AQ21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR21" t="n">
         <v>6</v>
       </c>
       <c r="AS21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT21" t="n">
         <v>10</v>
@@ -4259,7 +4326,7 @@
         <v>16</v>
       </c>
       <c r="AW21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>25</v>
       </c>
       <c r="AZ21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA21" t="n">
         <v>19</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -4306,43 +4373,43 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" t="n">
         <v>30</v>
       </c>
       <c r="G22" t="n">
-        <v>0.63</v>
+        <v>0.625</v>
       </c>
       <c r="H22" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J22" t="n">
         <v>78.5</v>
       </c>
       <c r="K22" t="n">
-        <v>0.475</v>
+        <v>0.473</v>
       </c>
       <c r="L22" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="M22" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="N22" t="n">
-        <v>0.386</v>
+        <v>0.385</v>
       </c>
       <c r="O22" t="n">
         <v>20.3</v>
       </c>
       <c r="P22" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="Q22" t="n">
         <v>0.722</v>
@@ -4357,7 +4424,7 @@
         <v>42</v>
       </c>
       <c r="U22" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V22" t="n">
         <v>14.4</v>
@@ -4369,22 +4436,22 @@
         <v>4.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z22" t="n">
         <v>20.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.5</v>
+        <v>104.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
         <v>9</v>
@@ -4399,10 +4466,10 @@
         <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK22" t="n">
         <v>5</v>
@@ -4441,7 +4508,7 @@
         <v>14</v>
       </c>
       <c r="AW22" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AX22" t="n">
         <v>26</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -4566,10 +4633,10 @@
         <v>0.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF23" t="n">
         <v>17</v>
@@ -4581,7 +4648,7 @@
         <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ23" t="n">
         <v>17</v>
@@ -4620,7 +4687,7 @@
         <v>23</v>
       </c>
       <c r="AV23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW23" t="n">
         <v>4</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>5</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
         <v>6</v>
@@ -4760,7 +4827,7 @@
         <v>6</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4796,7 +4863,7 @@
         <v>5</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4814,7 +4881,7 @@
         <v>2</v>
       </c>
       <c r="AZ24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA24" t="n">
         <v>15</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -4852,37 +4919,37 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" t="n">
         <v>40</v>
       </c>
       <c r="G25" t="n">
-        <v>0.506</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J25" t="n">
         <v>79.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L25" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M25" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.378</v>
+        <v>0.376</v>
       </c>
       <c r="O25" t="n">
         <v>17.3</v>
@@ -4891,19 +4958,19 @@
         <v>22.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R25" t="n">
         <v>11</v>
       </c>
       <c r="S25" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T25" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U25" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V25" t="n">
         <v>13</v>
@@ -4918,40 +4985,40 @@
         <v>3.7</v>
       </c>
       <c r="Z25" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.40000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.9</v>
+        <v>-1.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF25" t="n">
         <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH25" t="n">
         <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ25" t="n">
         <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL25" t="n">
         <v>15</v>
@@ -4960,7 +5027,7 @@
         <v>18</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
         <v>24</v>
@@ -4969,19 +5036,19 @@
         <v>26</v>
       </c>
       <c r="AQ25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR25" t="n">
         <v>18</v>
       </c>
       <c r="AS25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT25" t="n">
         <v>25</v>
       </c>
       <c r="AU25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV25" t="n">
         <v>6</v>
@@ -4990,19 +5057,19 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY25" t="n">
         <v>1</v>
       </c>
       <c r="AZ25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA25" t="n">
         <v>22</v>
       </c>
       <c r="BB25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" t="n">
         <v>38</v>
       </c>
       <c r="F26" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G26" t="n">
-        <v>0.463</v>
+        <v>0.469</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5052,7 +5119,7 @@
         <v>37.1</v>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K26" t="n">
         <v>0.464</v>
@@ -5064,31 +5131,31 @@
         <v>16.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="O26" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="P26" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.798</v>
+        <v>0.797</v>
       </c>
       <c r="R26" t="n">
         <v>10.1</v>
       </c>
       <c r="S26" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T26" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="U26" t="n">
         <v>19.1</v>
       </c>
       <c r="V26" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="W26" t="n">
         <v>7.9</v>
@@ -5106,10 +5173,10 @@
         <v>23.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.3</v>
+        <v>-2</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -5124,7 +5191,7 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
         <v>14</v>
@@ -5142,7 +5209,7 @@
         <v>20</v>
       </c>
       <c r="AN26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
@@ -5157,7 +5224,7 @@
         <v>23</v>
       </c>
       <c r="AS26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT26" t="n">
         <v>29</v>
@@ -5166,7 +5233,7 @@
         <v>28</v>
       </c>
       <c r="AV26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW26" t="n">
         <v>7</v>
@@ -5181,7 +5248,7 @@
         <v>24</v>
       </c>
       <c r="BA26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -5294,10 +5361,10 @@
         <v>4.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF27" t="n">
         <v>5</v>
@@ -5306,13 +5373,13 @@
         <v>5</v>
       </c>
       <c r="AH27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>27</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>28</v>
       </c>
       <c r="AK27" t="n">
         <v>14</v>
@@ -5342,7 +5409,7 @@
         <v>10</v>
       </c>
       <c r="AT27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU27" t="n">
         <v>21</v>
@@ -5351,7 +5418,7 @@
         <v>4</v>
       </c>
       <c r="AW27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AX27" t="n">
         <v>24</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-8.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
         <v>29</v>
@@ -5518,7 +5585,7 @@
         <v>9</v>
       </c>
       <c r="AR28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS28" t="n">
         <v>4</v>
@@ -5527,7 +5594,7 @@
         <v>3</v>
       </c>
       <c r="AU28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV28" t="n">
         <v>29</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
@@ -5706,13 +5773,13 @@
         <v>14</v>
       </c>
       <c r="AT29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU29" t="n">
         <v>5</v>
       </c>
       <c r="AV29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>7.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>6</v>
@@ -5852,7 +5919,7 @@
         <v>6</v>
       </c>
       <c r="AH30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI30" t="n">
         <v>4</v>
@@ -5909,13 +5976,13 @@
         <v>30</v>
       </c>
       <c r="BA30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB30" t="n">
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6034,7 +6101,7 @@
         <v>14</v>
       </c>
       <c r="AH31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI31" t="n">
         <v>19</v>
@@ -6052,7 +6119,7 @@
         <v>9</v>
       </c>
       <c r="AN31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-15-2007-08</t>
+          <t>2008-04-15</t>
         </is>
       </c>
     </row>
